--- a/public/Template V2.xlsx
+++ b/public/Template V2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/payslip/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9540305-A106-0D4E-8F7C-154F6A785F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCB2120-3059-C045-BF50-791811CB8006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Wuclq9pgLSwiCN1CxHFBNWf9x6XLXGbE6cpp/enLMmLVbkGbIcMtVXlukoDUpBB7FAg5JO25g2YiiEzjFoLAdA==" workbookSaltValue="tK63htd/GaSpK8v4Ie3M4Q==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20920" xr2:uid="{8ED9818E-59F9-6949-8D1A-5036E9068AA9}"/>
@@ -187,9 +187,6 @@
     <t>Holiday Amount</t>
   </si>
   <si>
-    <t xml:space="preserve">MORGADO, JOHN ASHBEE A. </t>
-  </si>
-  <si>
     <t>SSS Contribution</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>payslip@light.org.ph</t>
+  </si>
+  <si>
+    <t>DELA CRUZ, JUAN</t>
   </si>
 </sst>
 </file>
@@ -438,6 +438,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -456,9 +459,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC76FFC-1A64-1341-A4F3-70BB52FA1105}">
   <dimension ref="A1:AQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R2" zoomScale="117" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="117" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -830,23 +830,23 @@
       <c r="C1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="19">
         <v>43962</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="C2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="19">
         <v>43976</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:43" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -879,14 +879,14 @@
       <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="22" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="23"/>
+      <c r="N3" s="24"/>
       <c r="O3" s="6" t="s">
         <v>11</v>
       </c>
@@ -903,37 +903,37 @@
       <c r="T3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="20"/>
-      <c r="W3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="22"/>
       <c r="X3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="Y3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="Z3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="22"/>
       <c r="AM3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="24"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -980,7 +980,7 @@
         <v>27</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>28</v>
@@ -992,7 +992,7 @@
         <v>50</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U4" s="8" t="s">
         <v>29</v>
@@ -1001,7 +1001,7 @@
         <v>30</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X4" s="8" t="s">
         <v>31</v>
@@ -1013,19 +1013,19 @@
         <v>33</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="AD4" s="8" t="s">
         <v>37</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF4" s="8" t="s">
         <v>38</v>
@@ -1040,10 +1040,10 @@
         <v>36</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AL4" s="8" t="s">
         <v>51</v>
@@ -1058,18 +1058,18 @@
         <v>40</v>
       </c>
       <c r="AP4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="AQ4" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>42</v>
@@ -1078,7 +1078,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="4">
         <v>24100</v>
@@ -1105,7 +1105,7 @@
         <v>1234</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y5" s="4">
         <v>12050</v>
